--- a/forms/contact/health_worker-create.xlsx
+++ b/forms/contact/health_worker-create.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8100"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="177">
   <si>
     <t>type</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Meneja wa Kituo cha afya</t>
   </si>
   <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
     <t>mgonjwa</t>
   </si>
   <si>
@@ -209,27 +203,18 @@
     <t>place_type</t>
   </si>
   <si>
-    <t>district_hospital</t>
-  </si>
-  <si>
     <t>Health Facility</t>
   </si>
   <si>
     <t>Wilaya</t>
   </si>
   <si>
-    <t>health_center</t>
-  </si>
-  <si>
     <t>Area</t>
   </si>
   <si>
     <t>Kituo cha afya</t>
   </si>
   <si>
-    <t>clinic</t>
-  </si>
-  <si>
     <t>Household</t>
   </si>
   <si>
@@ -515,15 +500,6 @@
     <t>Nambari nyingine ya simu</t>
   </si>
   <si>
-    <t>treatment_program</t>
-  </si>
-  <si>
-    <t>Treatment Program</t>
-  </si>
-  <si>
-    <t>Maelezo ya ziada</t>
-  </si>
-  <si>
     <t>select_one education</t>
   </si>
   <si>
@@ -561,6 +537,21 @@
   </si>
   <si>
     <t>contact:health_worker:create</t>
+  </si>
+  <si>
+    <t>link_facility</t>
+  </si>
+  <si>
+    <t>chw_area</t>
+  </si>
+  <si>
+    <t>hosehold</t>
+  </si>
+  <si>
+    <t>lab_tech</t>
+  </si>
+  <si>
+    <t>Lab Technologist</t>
   </si>
 </sst>
 </file>
@@ -783,6 +774,42 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEAD1DC"/>
+          <bgColor rgb="FFEAD1DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFC27BA0"/>
       </font>
@@ -801,14 +828,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9D2E9"/>
           <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -880,34 +899,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFD9EAD3"/>
           <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEAD1DC"/>
-          <bgColor rgb="FFEAD1DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1381,13 +1372,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH983"/>
+  <dimension ref="A1:AH982"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1565,16 +1556,16 @@
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1609,13 +1600,13 @@
     </row>
     <row r="5" spans="1:34" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="13"/>
@@ -1651,16 +1642,16 @@
     </row>
     <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1695,7 +1686,7 @@
     </row>
     <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -1733,7 +1724,7 @@
     </row>
     <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1771,13 +1762,13 @@
     </row>
     <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
@@ -1787,7 +1778,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1815,20 +1806,20 @@
     </row>
     <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
@@ -1861,16 +1852,16 @@
     </row>
     <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1879,7 +1870,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -1913,17 +1904,17 @@
         <v>42</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1955,21 +1946,21 @@
     </row>
     <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1977,13 +1968,13 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -2007,13 +1998,13 @@
     </row>
     <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -2051,21 +2042,21 @@
     </row>
     <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2073,13 +2064,13 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -2103,16 +2094,16 @@
     </row>
     <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>26</v>
@@ -2120,10 +2111,10 @@
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -2153,16 +2144,16 @@
     </row>
     <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>26</v>
@@ -2199,16 +2190,16 @@
     </row>
     <row r="18" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -2217,7 +2208,7 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="17" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -2248,10 +2239,10 @@
         <v>24</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" s="16"/>
       <c r="E19" s="6"/>
@@ -2287,13 +2278,13 @@
     </row>
     <row r="20" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="6"/>
@@ -2329,28 +2320,28 @@
     </row>
     <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19"/>
@@ -2379,28 +2370,28 @@
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -2429,13 +2420,13 @@
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="6"/>
@@ -2445,7 +2436,7 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="7"/>
@@ -2473,13 +2464,13 @@
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="6"/>
@@ -2489,7 +2480,7 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="7"/>
@@ -2517,7 +2508,7 @@
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="16"/>
@@ -2555,38 +2546,38 @@
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2611,38 +2602,38 @@
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
       <c r="M27" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
@@ -2666,64 +2657,60 @@
       <c r="AH27" s="7"/>
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-      <c r="AF28" s="7"/>
-      <c r="AG28" s="7"/>
-      <c r="AH28" s="7"/>
+      <c r="A28" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
     </row>
     <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -2755,17 +2742,17 @@
     </row>
     <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D30" s="17"/>
       <c r="E30" s="17"/>
-      <c r="F30" s="24"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2796,101 +2783,103 @@
       <c r="AH30" s="17"/>
     </row>
     <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
+      <c r="A31" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
+      <c r="A32" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -2925,16 +2914,16 @@
     </row>
     <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -2968,91 +2957,83 @@
       <c r="AH34" s="19"/>
     </row>
     <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="19"/>
-      <c r="AC35" s="19"/>
-      <c r="AD35" s="19"/>
-      <c r="AE35" s="19"/>
-      <c r="AF35" s="19"/>
-      <c r="AG35" s="19"/>
-      <c r="AH35" s="19"/>
+      <c r="A35" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
     </row>
     <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
-      <c r="X36" s="26"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="26"/>
-      <c r="AC36" s="26"/>
-      <c r="AD36" s="26"/>
-      <c r="AE36" s="26"/>
-      <c r="AF36" s="26"/>
-      <c r="AG36" s="26"/>
-      <c r="AH36" s="26"/>
+      <c r="A36" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="17"/>
     </row>
     <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
-        <v>96</v>
-      </c>
+      <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -3198,8 +3179,8 @@
     <row r="41" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -3234,8 +3215,8 @@
     <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -3489,7 +3470,7 @@
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -3592,40 +3573,40 @@
       <c r="AH51" s="17"/>
     </row>
     <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
     </row>
     <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
@@ -3666,16 +3647,16 @@
     <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="17"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
@@ -3702,16 +3683,16 @@
     <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="17"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
@@ -3844,40 +3825,40 @@
       <c r="AH58" s="7"/>
     </row>
     <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
-      <c r="X59" s="7"/>
-      <c r="Y59" s="7"/>
-      <c r="Z59" s="7"/>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
-      <c r="AC59" s="7"/>
-      <c r="AD59" s="7"/>
-      <c r="AE59" s="7"/>
-      <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+      <c r="AH59" s="17"/>
     </row>
     <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
@@ -4276,76 +4257,76 @@
       <c r="AH70" s="17"/>
     </row>
     <row r="71" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
-      <c r="R71" s="17"/>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="17"/>
-      <c r="X71" s="17"/>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="17"/>
-      <c r="AC71" s="17"/>
-      <c r="AD71" s="17"/>
-      <c r="AE71" s="17"/>
-      <c r="AF71" s="17"/>
-      <c r="AG71" s="17"/>
-      <c r="AH71" s="17"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="30"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+      <c r="AB71" s="30"/>
+      <c r="AC71" s="30"/>
+      <c r="AD71" s="30"/>
+      <c r="AE71" s="30"/>
+      <c r="AF71" s="30"/>
+      <c r="AG71" s="30"/>
+      <c r="AH71" s="30"/>
     </row>
     <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="30"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
-      <c r="AD72" s="30"/>
-      <c r="AE72" s="30"/>
-      <c r="AF72" s="30"/>
-      <c r="AG72" s="30"/>
-      <c r="AH72" s="30"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="17"/>
+      <c r="X72" s="17"/>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="17"/>
     </row>
     <row r="73" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
@@ -4492,10 +4473,10 @@
       <c r="AH76" s="17"/>
     </row>
     <row r="77" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="17"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="17"/>
       <c r="F77" s="17"/>
       <c r="G77" s="17"/>
@@ -4528,10 +4509,10 @@
       <c r="AH77" s="17"/>
     </row>
     <row r="78" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="17"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
       <c r="G78" s="17"/>
@@ -4564,40 +4545,40 @@
       <c r="AH78" s="17"/>
     </row>
     <row r="79" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="17"/>
-      <c r="T79" s="17"/>
-      <c r="U79" s="17"/>
-      <c r="V79" s="17"/>
-      <c r="W79" s="17"/>
-      <c r="X79" s="17"/>
-      <c r="Y79" s="17"/>
-      <c r="Z79" s="17"/>
-      <c r="AA79" s="17"/>
-      <c r="AB79" s="17"/>
-      <c r="AC79" s="17"/>
-      <c r="AD79" s="17"/>
-      <c r="AE79" s="17"/>
-      <c r="AF79" s="17"/>
-      <c r="AG79" s="17"/>
-      <c r="AH79" s="17"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
     </row>
     <row r="80" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
@@ -4674,8 +4655,8 @@
     <row r="82" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
@@ -4710,8 +4691,8 @@
     <row r="83" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -4745,111 +4726,111 @@
     </row>
     <row r="84" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="7"/>
-      <c r="AD84" s="7"/>
-      <c r="AE84" s="7"/>
-      <c r="AF84" s="7"/>
-      <c r="AG84" s="7"/>
-      <c r="AH84" s="7"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="17"/>
+      <c r="X84" s="17"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
+      <c r="AG84" s="17"/>
+      <c r="AH84" s="17"/>
     </row>
     <row r="85" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
-      <c r="V85" s="17"/>
-      <c r="W85" s="17"/>
-      <c r="X85" s="17"/>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17"/>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
-      <c r="AG85" s="17"/>
-      <c r="AH85" s="17"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
     </row>
     <row r="86" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="7"/>
-      <c r="AD86" s="7"/>
-      <c r="AE86" s="7"/>
-      <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-      <c r="AH86" s="7"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="17"/>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+      <c r="AG86" s="17"/>
+      <c r="AH86" s="17"/>
     </row>
     <row r="87" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
@@ -4926,8 +4907,8 @@
     <row r="89" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -4962,8 +4943,8 @@
     <row r="90" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="17"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
@@ -5106,8 +5087,8 @@
     <row r="94" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
       <c r="E94" s="17"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
@@ -5142,8 +5123,8 @@
     <row r="95" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="17"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
@@ -5178,8 +5159,8 @@
     <row r="96" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
@@ -5214,8 +5195,8 @@
     <row r="97" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="17"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -5250,8 +5231,8 @@
     <row r="98" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
       <c r="E98" s="17"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
@@ -5285,39 +5266,39 @@
     </row>
     <row r="99" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
-      <c r="B99" s="17"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="17"/>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
-      <c r="AG99" s="17"/>
-      <c r="AH99" s="17"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7"/>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7"/>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="7"/>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
+      <c r="AC99" s="7"/>
+      <c r="AD99" s="7"/>
+      <c r="AE99" s="7"/>
+      <c r="AF99" s="7"/>
+      <c r="AG99" s="7"/>
+      <c r="AH99" s="7"/>
     </row>
     <row r="100" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
@@ -5430,8 +5411,8 @@
     <row r="103" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
@@ -5538,8 +5519,8 @@
     <row r="106" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
@@ -5898,8 +5879,8 @@
     <row r="116" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
@@ -5970,8 +5951,8 @@
     <row r="118" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
@@ -6078,8 +6059,8 @@
     <row r="121" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
@@ -6186,8 +6167,8 @@
     <row r="124" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
@@ -6222,8 +6203,8 @@
     <row r="125" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
@@ -6261,7 +6242,7 @@
       <c r="C126" s="29"/>
       <c r="D126" s="29"/>
       <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="29"/>
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
@@ -6294,10 +6275,10 @@
     <row r="127" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="29"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
       <c r="E127" s="7"/>
-      <c r="F127" s="29"/>
+      <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
@@ -6582,8 +6563,8 @@
     <row r="135" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
@@ -6618,8 +6599,8 @@
     <row r="136" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="16"/>
-      <c r="D136" s="16"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
@@ -6654,8 +6635,8 @@
     <row r="137" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
       <c r="G137" s="7"/>
@@ -6690,8 +6671,8 @@
     <row r="138" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
-      <c r="C138" s="16"/>
-      <c r="D138" s="16"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
@@ -6726,8 +6707,8 @@
     <row r="139" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
       <c r="G139" s="7"/>
@@ -6762,8 +6743,8 @@
     <row r="140" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
       <c r="E140" s="7"/>
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
@@ -6798,8 +6779,8 @@
     <row r="141" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
@@ -6834,8 +6815,8 @@
     <row r="142" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
@@ -6870,8 +6851,8 @@
     <row r="143" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
@@ -6906,8 +6887,8 @@
     <row r="144" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
-      <c r="C144" s="16"/>
-      <c r="D144" s="16"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
@@ -6942,8 +6923,8 @@
     <row r="145" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
@@ -6975,83 +6956,83 @@
       <c r="AG145" s="7"/>
       <c r="AH145" s="7"/>
     </row>
-    <row r="146" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="7"/>
-      <c r="J146" s="7"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="7"/>
-      <c r="M146" s="7"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
-      <c r="P146" s="7"/>
-      <c r="Q146" s="7"/>
-      <c r="R146" s="7"/>
-      <c r="S146" s="7"/>
-      <c r="T146" s="7"/>
-      <c r="U146" s="7"/>
-      <c r="V146" s="7"/>
-      <c r="W146" s="7"/>
-      <c r="X146" s="7"/>
-      <c r="Y146" s="7"/>
-      <c r="Z146" s="7"/>
-      <c r="AA146" s="7"/>
-      <c r="AB146" s="7"/>
-      <c r="AC146" s="7"/>
-      <c r="AD146" s="7"/>
-      <c r="AE146" s="7"/>
-      <c r="AF146" s="7"/>
-      <c r="AG146" s="7"/>
-      <c r="AH146" s="7"/>
-    </row>
-    <row r="147" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="31"/>
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="31"/>
-      <c r="L147" s="31"/>
-      <c r="M147" s="31"/>
-      <c r="N147" s="31"/>
-      <c r="O147" s="31"/>
-      <c r="P147" s="31"/>
-      <c r="Q147" s="31"/>
-      <c r="R147" s="31"/>
-      <c r="S147" s="31"/>
-      <c r="T147" s="31"/>
-      <c r="U147" s="31"/>
-      <c r="V147" s="31"/>
-      <c r="W147" s="31"/>
-      <c r="X147" s="31"/>
-      <c r="Y147" s="31"/>
-      <c r="Z147" s="31"/>
-      <c r="AA147" s="31"/>
-      <c r="AB147" s="31"/>
-      <c r="AC147" s="31"/>
-      <c r="AD147" s="31"/>
-      <c r="AE147" s="31"/>
-      <c r="AF147" s="31"/>
-      <c r="AG147" s="31"/>
-      <c r="AH147" s="31"/>
+    <row r="146" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="31"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+      <c r="L146" s="31"/>
+      <c r="M146" s="31"/>
+      <c r="N146" s="31"/>
+      <c r="O146" s="31"/>
+      <c r="P146" s="31"/>
+      <c r="Q146" s="31"/>
+      <c r="R146" s="31"/>
+      <c r="S146" s="31"/>
+      <c r="T146" s="31"/>
+      <c r="U146" s="31"/>
+      <c r="V146" s="31"/>
+      <c r="W146" s="31"/>
+      <c r="X146" s="31"/>
+      <c r="Y146" s="31"/>
+      <c r="Z146" s="31"/>
+      <c r="AA146" s="31"/>
+      <c r="AB146" s="31"/>
+      <c r="AC146" s="31"/>
+      <c r="AD146" s="31"/>
+      <c r="AE146" s="31"/>
+      <c r="AF146" s="31"/>
+      <c r="AG146" s="31"/>
+      <c r="AH146" s="31"/>
+    </row>
+    <row r="147" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7"/>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="7"/>
+      <c r="N147" s="7"/>
+      <c r="O147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="7"/>
+      <c r="R147" s="7"/>
+      <c r="S147" s="7"/>
+      <c r="T147" s="7"/>
+      <c r="U147" s="7"/>
+      <c r="V147" s="7"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="7"/>
+      <c r="AA147" s="7"/>
+      <c r="AB147" s="7"/>
+      <c r="AC147" s="7"/>
+      <c r="AD147" s="7"/>
+      <c r="AE147" s="7"/>
+      <c r="AF147" s="7"/>
+      <c r="AG147" s="7"/>
+      <c r="AH147" s="7"/>
     </row>
     <row r="148" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
@@ -7086,8 +7067,8 @@
     <row r="149" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
@@ -7122,8 +7103,8 @@
     <row r="150" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
@@ -7158,8 +7139,8 @@
     <row r="151" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
@@ -7194,8 +7175,8 @@
     <row r="152" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
@@ -7230,47 +7211,47 @@
     <row r="153" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="30"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="7"/>
-      <c r="J153" s="7"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
       <c r="K153" s="7"/>
-      <c r="L153" s="7"/>
-      <c r="M153" s="7"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
-      <c r="P153" s="7"/>
-      <c r="Q153" s="7"/>
-      <c r="R153" s="7"/>
-      <c r="S153" s="7"/>
-      <c r="T153" s="7"/>
-      <c r="U153" s="7"/>
-      <c r="V153" s="7"/>
-      <c r="W153" s="7"/>
-      <c r="X153" s="7"/>
-      <c r="Y153" s="7"/>
-      <c r="Z153" s="7"/>
-      <c r="AA153" s="7"/>
-      <c r="AB153" s="7"/>
-      <c r="AC153" s="7"/>
-      <c r="AD153" s="7"/>
-      <c r="AE153" s="7"/>
-      <c r="AF153" s="7"/>
-      <c r="AG153" s="7"/>
-      <c r="AH153" s="7"/>
+      <c r="L153" s="30"/>
+      <c r="M153" s="30"/>
+      <c r="N153" s="30"/>
+      <c r="O153" s="30"/>
+      <c r="P153" s="30"/>
+      <c r="Q153" s="30"/>
+      <c r="R153" s="30"/>
+      <c r="S153" s="30"/>
+      <c r="T153" s="30"/>
+      <c r="U153" s="30"/>
+      <c r="V153" s="30"/>
+      <c r="W153" s="30"/>
+      <c r="X153" s="30"/>
+      <c r="Y153" s="30"/>
+      <c r="Z153" s="30"/>
+      <c r="AA153" s="30"/>
+      <c r="AB153" s="30"/>
+      <c r="AC153" s="30"/>
+      <c r="AD153" s="30"/>
+      <c r="AE153" s="30"/>
+      <c r="AF153" s="30"/>
+      <c r="AG153" s="30"/>
+      <c r="AH153" s="30"/>
     </row>
     <row r="154" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
       <c r="E154" s="30"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="32"/>
+      <c r="F154" s="30"/>
+      <c r="G154" s="30"/>
       <c r="H154" s="30"/>
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
@@ -7302,15 +7283,15 @@
     <row r="155" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
       <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
       <c r="H155" s="30"/>
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
-      <c r="K155" s="7"/>
+      <c r="K155" s="30"/>
       <c r="L155" s="30"/>
       <c r="M155" s="30"/>
       <c r="N155" s="30"/>
@@ -7342,7 +7323,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="30"/>
       <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
+      <c r="G156" s="30"/>
       <c r="H156" s="30"/>
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
@@ -7372,40 +7353,40 @@
       <c r="AH156" s="30"/>
     </row>
     <row r="157" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="30"/>
-      <c r="I157" s="30"/>
-      <c r="J157" s="30"/>
-      <c r="K157" s="30"/>
-      <c r="L157" s="30"/>
-      <c r="M157" s="30"/>
-      <c r="N157" s="30"/>
-      <c r="O157" s="30"/>
-      <c r="P157" s="30"/>
-      <c r="Q157" s="30"/>
-      <c r="R157" s="30"/>
-      <c r="S157" s="30"/>
-      <c r="T157" s="30"/>
-      <c r="U157" s="30"/>
-      <c r="V157" s="30"/>
-      <c r="W157" s="30"/>
-      <c r="X157" s="30"/>
-      <c r="Y157" s="30"/>
-      <c r="Z157" s="30"/>
-      <c r="AA157" s="30"/>
-      <c r="AB157" s="30"/>
-      <c r="AC157" s="30"/>
-      <c r="AD157" s="30"/>
-      <c r="AE157" s="30"/>
-      <c r="AF157" s="30"/>
-      <c r="AG157" s="30"/>
-      <c r="AH157" s="30"/>
+      <c r="A157" s="17"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17"/>
+      <c r="R157" s="17"/>
+      <c r="S157" s="17"/>
+      <c r="T157" s="17"/>
+      <c r="U157" s="17"/>
+      <c r="V157" s="17"/>
+      <c r="W157" s="17"/>
+      <c r="X157" s="17"/>
+      <c r="Y157" s="17"/>
+      <c r="Z157" s="17"/>
+      <c r="AA157" s="17"/>
+      <c r="AB157" s="17"/>
+      <c r="AC157" s="17"/>
+      <c r="AD157" s="17"/>
+      <c r="AE157" s="17"/>
+      <c r="AF157" s="17"/>
+      <c r="AG157" s="17"/>
+      <c r="AH157" s="17"/>
     </row>
     <row r="158" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
@@ -7443,41 +7424,41 @@
       <c r="AG158" s="17"/>
       <c r="AH158" s="17"/>
     </row>
-    <row r="159" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
-      <c r="O159" s="17"/>
-      <c r="P159" s="17"/>
-      <c r="Q159" s="17"/>
-      <c r="R159" s="17"/>
-      <c r="S159" s="17"/>
-      <c r="T159" s="17"/>
-      <c r="U159" s="17"/>
-      <c r="V159" s="17"/>
-      <c r="W159" s="17"/>
-      <c r="X159" s="17"/>
-      <c r="Y159" s="17"/>
-      <c r="Z159" s="17"/>
-      <c r="AA159" s="17"/>
-      <c r="AB159" s="17"/>
-      <c r="AC159" s="17"/>
-      <c r="AD159" s="17"/>
-      <c r="AE159" s="17"/>
-      <c r="AF159" s="17"/>
-      <c r="AG159" s="17"/>
-      <c r="AH159" s="17"/>
+    <row r="159" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="31"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="31"/>
+      <c r="D159" s="31"/>
+      <c r="E159" s="31"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
+      <c r="I159" s="31"/>
+      <c r="J159" s="31"/>
+      <c r="K159" s="31"/>
+      <c r="L159" s="31"/>
+      <c r="M159" s="31"/>
+      <c r="N159" s="31"/>
+      <c r="O159" s="31"/>
+      <c r="P159" s="31"/>
+      <c r="Q159" s="31"/>
+      <c r="R159" s="31"/>
+      <c r="S159" s="31"/>
+      <c r="T159" s="31"/>
+      <c r="U159" s="31"/>
+      <c r="V159" s="31"/>
+      <c r="W159" s="31"/>
+      <c r="X159" s="31"/>
+      <c r="Y159" s="31"/>
+      <c r="Z159" s="31"/>
+      <c r="AA159" s="31"/>
+      <c r="AB159" s="31"/>
+      <c r="AC159" s="31"/>
+      <c r="AD159" s="31"/>
+      <c r="AE159" s="31"/>
+      <c r="AF159" s="31"/>
+      <c r="AG159" s="31"/>
+      <c r="AH159" s="31"/>
     </row>
     <row r="160" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="31"/>
@@ -10252,40 +10233,7 @@
       <c r="AH236" s="31"/>
     </row>
     <row r="237" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="31"/>
-      <c r="B237" s="31"/>
-      <c r="C237" s="31"/>
-      <c r="D237" s="31"/>
-      <c r="E237" s="31"/>
-      <c r="F237" s="31"/>
-      <c r="G237" s="31"/>
-      <c r="H237" s="31"/>
-      <c r="I237" s="31"/>
-      <c r="J237" s="31"/>
-      <c r="K237" s="31"/>
-      <c r="L237" s="31"/>
-      <c r="M237" s="31"/>
-      <c r="N237" s="31"/>
-      <c r="O237" s="31"/>
-      <c r="P237" s="31"/>
-      <c r="Q237" s="31"/>
-      <c r="R237" s="31"/>
-      <c r="S237" s="31"/>
-      <c r="T237" s="31"/>
-      <c r="U237" s="31"/>
-      <c r="V237" s="31"/>
-      <c r="W237" s="31"/>
-      <c r="X237" s="31"/>
-      <c r="Y237" s="31"/>
-      <c r="Z237" s="31"/>
-      <c r="AA237" s="31"/>
-      <c r="AB237" s="31"/>
-      <c r="AC237" s="31"/>
-      <c r="AD237" s="31"/>
-      <c r="AE237" s="31"/>
-      <c r="AF237" s="31"/>
-      <c r="AG237" s="31"/>
-      <c r="AH237" s="31"/>
+      <c r="E237" s="33"/>
     </row>
     <row r="238" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E238" s="33"/>
@@ -12522,46 +12470,43 @@
     <row r="982" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E982" s="33"/>
     </row>
-    <row r="983" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E983" s="33"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AH4 A6:AH983 D5:AH5">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH982">
     <cfRule type="containsText" dxfId="35" priority="11" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 A6:AH983 D5:AH5">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH982">
     <cfRule type="expression" dxfId="34" priority="12">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 A6:AH983 D5:AH5">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH982">
     <cfRule type="expression" dxfId="33" priority="13">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 A6:AH983 D5:AH5">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH982">
     <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K983">
+  <conditionalFormatting sqref="K1:K982">
     <cfRule type="expression" dxfId="31" priority="17">
       <formula>AND($K1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D4 C6:D983 D5">
+  <conditionalFormatting sqref="C1:D4 D5 C6:D982">
     <cfRule type="expression" dxfId="30" priority="18">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B4 B6:B983">
+  <conditionalFormatting sqref="B1:B4 B6:B982">
     <cfRule type="expression" dxfId="29" priority="19">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A4 A6:A983">
+  <conditionalFormatting sqref="A1:A4 A6:A982">
     <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
@@ -12626,88 +12571,88 @@
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J983">
+  <conditionalFormatting sqref="I1:J982">
     <cfRule type="expression" dxfId="15" priority="34">
       <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 A6:AH983 D5:AH5">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH982">
     <cfRule type="expression" dxfId="14" priority="35">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 A6:AH983 D5:AH5">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH982">
     <cfRule type="expression" dxfId="13" priority="36">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="12" priority="45">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$997, "begin group") = COUNTIF($A$1:$A$997, "end group"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="11" priority="46">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$988, "begin group") = COUNTIF($A$1:$A$997, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4 B6:B983">
-    <cfRule type="expression" dxfId="10" priority="55">
-      <formula>COUNTIF($B$2:$B$996,B2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $B5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="2" priority="8">
-      <formula>COUNTIF($B$2:$B$972,B5)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="1" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="0" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="3" priority="78">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$996, "begin group") = COUNTIF($A$1:$A$996, "end group"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="expression" dxfId="2" priority="79">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$987, "begin group") = COUNTIF($A$1:$A$996, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4 B6:B982">
+    <cfRule type="expression" dxfId="1" priority="80">
+      <formula>COUNTIF($B$2:$B$995,B2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="83">
+      <formula>COUNTIF($B$2:$B$971,B5)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E983">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E982">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12723,8 +12668,8 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12902,13 +12847,13 @@
         <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -12918,13 +12863,13 @@
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -12939,48 +12884,48 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -12995,32 +12940,32 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="D20" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -13035,13 +12980,13 @@
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -13049,13 +12994,13 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -13063,13 +13008,13 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -13077,13 +13022,13 @@
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -13091,13 +13036,13 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -15489,7 +15434,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
@@ -15526,14 +15471,14 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C2" s="8">
         <f ca="1">NOW()</f>
-        <v>44853.467374768516</v>
+        <v>44862.96976388889</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>39</v>

--- a/forms/contact/health_worker-create.xlsx
+++ b/forms/contact/health_worker-create.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\January 16 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\January 16 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF4E9A7-E67D-40DE-B855-EE529CBA6130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD5BED-0949-44F0-A673-377AD66B5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -785,7 +785,84 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D2E9"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCCCCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE5CD"/>
+          <bgColor rgb="FFFCE5CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC27BA0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF76A5AF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCFE2F3"/>
+          <bgColor rgb="FFCFE2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFB7B7B7"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9EAD3"/>
+          <bgColor rgb="FFD9EAD3"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC27BA0"/>
@@ -1812,10 +1889,10 @@
   <dimension ref="A1:AH991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2553,7 +2630,9 @@
       <c r="AH16" s="12"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -13301,389 +13380,424 @@
       <c r="E991" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH9 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A17:AH17 T10:AH16">
-    <cfRule type="containsText" dxfId="76" priority="53" operator="containsText" text="calculate">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH9 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 B17:AH17 T10:AH16">
+    <cfRule type="containsText" dxfId="83" priority="60" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 A17:AH17 T10:AH16">
-    <cfRule type="expression" dxfId="75" priority="54">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 B17:AH17 T10:AH16">
+    <cfRule type="expression" dxfId="82" priority="61">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 A17:AH17 T10:AH16">
-    <cfRule type="expression" dxfId="74" priority="55">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 B17:AH17 T10:AH16">
+    <cfRule type="expression" dxfId="81" priority="62">
       <formula>AND($A1="end group", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH9 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A17:AH17 T10:AH16">
-    <cfRule type="cellIs" dxfId="73" priority="56" operator="equal">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A6:AH9 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 B17:AH17 T10:AH16">
+    <cfRule type="cellIs" dxfId="80" priority="63" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44:K991 K1:K9 K17:K40">
-    <cfRule type="expression" dxfId="72" priority="59">
+    <cfRule type="expression" dxfId="79" priority="66">
       <formula>AND($K1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D4 D5 C44:D991 C6:D9 C17:D40">
-    <cfRule type="expression" dxfId="71" priority="60">
+    <cfRule type="expression" dxfId="78" priority="67">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B4 B19:B40 B44:B991 B6:B9 B17">
-    <cfRule type="expression" dxfId="70" priority="61">
+    <cfRule type="expression" dxfId="77" priority="68">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A4 A44:A991 A6:A9 A17:A40">
-    <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
+  <conditionalFormatting sqref="A1:A4 A44:A991 A6:A9 A18:A40">
+    <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="68" priority="64" operator="notEqual">
+    <cfRule type="cellIs" dxfId="75" priority="71" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="notContainsText" dxfId="67" priority="65" operator="notContains" text="label">
+    <cfRule type="notContainsText" dxfId="74" priority="72" operator="notContains" text="label">
       <formula>ISERROR(SEARCH(("label"),(C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="72" priority="74" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="64" priority="68" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="70" priority="76" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="notContainsText" dxfId="62" priority="70" operator="notContains" text="constraint_message">
+    <cfRule type="notContainsText" dxfId="69" priority="77" operator="notContains" text="constraint_message">
       <formula>ISERROR(SEARCH(("constraint_message"),(I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="67" priority="79" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="notContainsText" dxfId="59" priority="73" operator="notContains" text="hint">
+    <cfRule type="notContainsText" dxfId="66" priority="80" operator="notContains" text="hint">
       <formula>ISERROR(SEARCH(("hint"),(M1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="cellIs" dxfId="58" priority="74" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="81" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:AH1">
-    <cfRule type="cellIs" dxfId="57" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="64" priority="82" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:J991 I1:J9 I17:J40">
-    <cfRule type="expression" dxfId="56" priority="76">
+    <cfRule type="expression" dxfId="63" priority="83">
       <formula>AND(NOT($H1 = ""), $I1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 A17:AH17 T10:AH16">
-    <cfRule type="expression" dxfId="55" priority="77">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 B17:AH17 T10:AH16">
+    <cfRule type="expression" dxfId="62" priority="84">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 A17:AH17 T10:AH16">
-    <cfRule type="expression" dxfId="54" priority="78">
+  <conditionalFormatting sqref="A1:AH4 D5:AH5 A19:AH40 A18 C18:AH18 L41:AH43 A44:AH991 A6:AH9 B17:AH17 T10:AH16">
+    <cfRule type="expression" dxfId="61" priority="85">
       <formula>AND($A1="end repeat", $B1 = "", $C1 = "", $E1 = "", $F1 = "", $G1 = "", $H1 = "", $I1 = "", $K1 = "", $L1 = "", $M1 = "", $O1 = "", $P1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="52" priority="44">
+    <cfRule type="expression" dxfId="59" priority="51">
       <formula>AND($A5="begin group", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="51" priority="45">
+    <cfRule type="expression" dxfId="58" priority="52">
       <formula>AND($A5="end group", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="cellIs" dxfId="50" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="53" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="56" priority="54">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $C5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="48" priority="48">
+    <cfRule type="expression" dxfId="55" priority="55">
       <formula>AND(AND(NOT($A5 = "end group"), NOT($A5 = "end repeat"), NOT($A5 = "")), $B5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="46" priority="51">
+    <cfRule type="expression" dxfId="53" priority="58">
       <formula>AND($A5="begin repeat", NOT($B5 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="expression" dxfId="45" priority="52">
+    <cfRule type="expression" dxfId="52" priority="59">
       <formula>AND($A5="end repeat", $B5 = "", $C5 = "", $D5 = "", $E5 = "", $F5 = "", $G5 = "", $H5 = "", $I5 = "", $J5 = "", $K5 = "", $L5 = "", $M5 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(B18))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="43" priority="36">
+    <cfRule type="expression" dxfId="50" priority="43">
       <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="42" priority="37">
+    <cfRule type="expression" dxfId="49" priority="44">
       <formula>AND($A18="end group", $B18 = "", $C18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="40" priority="39">
+    <cfRule type="expression" dxfId="47" priority="46">
       <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="39" priority="40">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="38" priority="41">
+    <cfRule type="expression" dxfId="45" priority="48">
       <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $K18 = "", $L18 = "", $M18 = "", $O18 = "", $P18 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:K43">
-    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="44" priority="30" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A41))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:K43">
-    <cfRule type="expression" dxfId="36" priority="24">
+    <cfRule type="expression" dxfId="43" priority="31">
       <formula>AND($A41="begin group", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:K43">
-    <cfRule type="expression" dxfId="35" priority="25">
+    <cfRule type="expression" dxfId="42" priority="32">
       <formula>AND($A41="end group", $B41 = "", $C41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $K41 = "", $L41 = "", $M41 = "", $O41 = "", $P41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:K43">
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:K43">
-    <cfRule type="expression" dxfId="33" priority="27">
+    <cfRule type="expression" dxfId="40" priority="34">
       <formula>AND($K41 = "", $A41 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:D43">
-    <cfRule type="expression" dxfId="32" priority="28">
+    <cfRule type="expression" dxfId="39" priority="35">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $C41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B43">
-    <cfRule type="expression" dxfId="31" priority="29">
+    <cfRule type="expression" dxfId="38" priority="36">
       <formula>AND(AND(NOT($A41 = "end group"), NOT($A41 = "end repeat"), NOT($A41 = "")), $B41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A43">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J43">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="36" priority="39">
       <formula>AND(NOT($H41 = ""), $I41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:K43">
-    <cfRule type="expression" dxfId="28" priority="33">
+    <cfRule type="expression" dxfId="35" priority="40">
       <formula>AND($A41="begin repeat", NOT($B41 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:K43">
-    <cfRule type="expression" dxfId="27" priority="34">
+    <cfRule type="expression" dxfId="34" priority="41">
       <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $K41 = "", $L41 = "", $M41 = "", $O41 = "", $P41 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B991 B2:B4 B6:B9 B17:B40">
-    <cfRule type="expression" dxfId="26" priority="139">
+    <cfRule type="expression" dxfId="33" priority="146">
       <formula>COUNTIF($B$2:$B$1004,B2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:B43">
-    <cfRule type="expression" dxfId="25" priority="145">
+    <cfRule type="expression" dxfId="32" priority="152">
       <formula>COUNTIF($B$2:$B$997,B41)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="24" priority="159">
+    <cfRule type="expression" dxfId="31" priority="166">
       <formula>AND(A1 = "type", COUNTIF($A$1:$A$1005, "begin group") = COUNTIF($A$1:$A$1005, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="23" priority="160">
+    <cfRule type="expression" dxfId="30" priority="167">
       <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$996, "begin group") = COUNTIF($A$1:$A$1005, "end group")))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="22" priority="164">
+    <cfRule type="expression" dxfId="29" priority="171">
       <formula>COUNTIF($B$2:$B$980,B5)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G16">
-    <cfRule type="expression" dxfId="21" priority="8">
+    <cfRule type="expression" dxfId="28" priority="15">
       <formula>AND($G13 = "", $A13 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G16">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="27" priority="16">
       <formula>AND($A13="end repeat", $B13 = "", $C13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $I13 = "", $G13 = "", $L13 = "", $M13 = "", $O13 = "", $P13 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G16">
-    <cfRule type="expression" dxfId="19" priority="10">
+    <cfRule type="expression" dxfId="26" priority="17">
       <formula>AND($A13="end group", $B13 = "", $C13 = "", $E13 = "", $F13 = "", $G13 = "", $H13 = "", $I13 = "", $G13 = "", $L13 = "", $M13 = "", $O13 = "", $P13 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 L10:S16 A10:J16 K12">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="25" priority="18" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(A10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 L10:S16 A10:J16 K12">
-    <cfRule type="expression" dxfId="17" priority="12">
+    <cfRule type="expression" dxfId="24" priority="19">
       <formula>AND($A10="begin group", NOT($B10 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G12 H10:J16 K10 L10:S16 A10:F16 K12">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>AND($A10="end group", $B10 = "", $C10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $I10 = "", $K10 = "", $L10 = "", $M10 = "", $O10 = "", $P10 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 L10:S16 A10:J16 K12">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 K12">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>AND($K10 = "", $A10 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:D16">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="20" priority="23">
       <formula>AND(AND(NOT($A10 = "end group"), NOT($A10 = "end repeat"), NOT($A10 = "")), $C10 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B16">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="19" priority="24">
       <formula>AND(AND(NOT($A10 = "end group"), NOT($A10 = "end repeat"), NOT($A10 = "")), $B10 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A16">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J16">
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="17" priority="26">
       <formula>AND(NOT($H10 = ""), $I10 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10 L10:S16 A10:J16 K12">
-    <cfRule type="expression" dxfId="9" priority="20">
+    <cfRule type="expression" dxfId="16" priority="27">
       <formula>AND($A10="begin repeat", NOT($B10 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G12 H10:J16 K10 L10:S16 A10:F16 K12">
-    <cfRule type="expression" dxfId="8" priority="21">
+    <cfRule type="expression" dxfId="15" priority="28">
       <formula>AND($A10="end repeat", $B10 = "", $C10 = "", $E10 = "", $F10 = "", $G10 = "", $H10 = "", $I10 = "", $K10 = "", $L10 = "", $M10 = "", $O10 = "", $P10 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B16">
-    <cfRule type="expression" dxfId="7" priority="22">
+    <cfRule type="expression" dxfId="14" priority="29">
       <formula>COUNTIF($B$2:$B$993,B10)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="calculate">
       <formula>NOT(ISERROR(SEARCH(("calculate"),(K11))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>AND($A11="begin group", NOT($B11 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>AND($A11="end group", $B11 = "", $C11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $K11 = "", $L11 = "", $M11 = "", $O11 = "", $P11 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="expression" dxfId="9" priority="12">
+      <formula>AND($K11 = "", $A11 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>AND($A11="begin repeat", NOT($B11 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="expression" dxfId="7" priority="14">
+      <formula>AND($A11="end repeat", $B11 = "", $C11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $K11 = "", $L11 = "", $M11 = "", $O11 = "", $P11 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="calculate">
+      <formula>NOT(ISERROR(SEARCH(("calculate"),(A17))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND($A17="begin group", NOT($B17 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND($A17="end group", $B17 = "", $C17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND($K11 = "", $A11 = "calculate")</formula>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="A17">
     <cfRule type="expression" dxfId="1" priority="6">
-      <formula>AND($A11="begin repeat", NOT($B11 = ""))</formula>
+      <formula>AND($A17="begin repeat", NOT($B17 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
+  <conditionalFormatting sqref="A17">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A11="end repeat", $B11 = "", $C11 = "", $E11 = "", $F11 = "", $G11 = "", $H11 = "", $I11 = "", $K11 = "", $L11 = "", $M11 = "", $O11 = "", $P11 = "")</formula>
+      <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $K17 = "", $L17 = "", $M17 = "", $O17 = "", $P17 = "")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -16514,7 +16628,7 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">NOW()</f>
-        <v>44942.971103935182</v>
+        <v>44942.977652893518</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>39</v>

--- a/forms/contact/health_worker-create.xlsx
+++ b/forms/contact/health_worker-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\January 16 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD5BED-0949-44F0-A673-377AD66B5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB7B09-CC3F-4CD7-8D02-DB9CCB4A4608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Maelezo ya mtu</t>
-  </si>
-  <si>
-    <t>${none_hh_member_flag} = 0</t>
   </si>
   <si>
     <t>field-list</t>
@@ -1889,10 +1886,10 @@
   <dimension ref="A1:AH991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2316,7 +2313,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>93</v>
@@ -2358,13 +2355,13 @@
         <v>92</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -2373,7 +2370,7 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -2404,13 +2401,13 @@
         <v>92</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>93</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -2419,7 +2416,7 @@
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -2450,24 +2447,24 @@
         <v>66</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="D13" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>186</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
       <c r="K13" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
@@ -2504,12 +2501,12 @@
         <v>93</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -2550,12 +2547,12 @@
         <v>93</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -2590,10 +2587,10 @@
         <v>94</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>191</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>93</v>
@@ -2672,7 +2669,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>95</v>
@@ -2681,11 +2678,9 @@
         <v>96</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -2717,21 +2712,21 @@
     </row>
     <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -2739,13 +2734,13 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -2769,13 +2764,13 @@
     </row>
     <row r="20" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>106</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
@@ -2789,7 +2784,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -2813,21 +2808,21 @@
     </row>
     <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
@@ -2835,13 +2830,13 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="O21" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -2871,10 +2866,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>26</v>
@@ -2882,10 +2877,10 @@
       <c r="F22" s="12"/>
       <c r="G22" s="11"/>
       <c r="H22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -2915,16 +2910,16 @@
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>26</v>
@@ -2964,13 +2959,13 @@
         <v>92</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -2979,7 +2974,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
@@ -3010,7 +3005,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>93</v>
@@ -3049,13 +3044,13 @@
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>126</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -3091,28 +3086,28 @@
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>128</v>
-      </c>
       <c r="C27" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>130</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>131</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
@@ -3141,28 +3136,28 @@
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>133</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>134</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>137</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
@@ -3194,7 +3189,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>93</v>
@@ -3207,7 +3202,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" s="14"/>
       <c r="M29" s="12"/>
@@ -3238,10 +3233,10 @@
         <v>92</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -3251,7 +3246,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L30" s="14"/>
       <c r="M30" s="12"/>
@@ -3317,38 +3312,38 @@
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -3373,38 +3368,38 @@
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>151</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -3429,13 +3424,13 @@
     </row>
     <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3471,13 +3466,13 @@
     </row>
     <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
@@ -3516,10 +3511,10 @@
         <v>66</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
@@ -3558,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>93</v>
@@ -3597,10 +3592,10 @@
     </row>
     <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>93</v>
@@ -3641,10 +3636,10 @@
     </row>
     <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>93</v>
@@ -3685,10 +3680,10 @@
     </row>
     <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>93</v>
@@ -3732,7 +3727,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>93</v>
@@ -3747,7 +3742,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
@@ -3778,7 +3773,7 @@
         <v>92</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>93</v>
@@ -3793,7 +3788,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
@@ -3824,7 +3819,7 @@
         <v>92</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="22" t="s">
         <v>93</v>
@@ -3839,7 +3834,7 @@
       <c r="I43" s="22"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
@@ -13997,10 +13992,10 @@
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>55</v>
@@ -14037,7 +14032,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
@@ -14053,7 +14048,7 @@
         <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>62</v>
@@ -14069,7 +14064,7 @@
         <v>59</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>64</v>
@@ -16621,14 +16616,14 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="C2" s="4">
         <f ca="1">NOW()</f>
-        <v>44942.977652893518</v>
+        <v>44942.978850925923</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>39</v>

--- a/forms/contact/health_worker-create.xlsx
+++ b/forms/contact/health_worker-create.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\Configs and Forms for Review\January 16 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AB7B09-CC3F-4CD7-8D02-DB9CCB4A4608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB39F66-6970-432F-B59D-FDB80A845587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="191">
   <si>
     <t>type</t>
   </si>
@@ -1886,10 +1886,10 @@
   <dimension ref="A1:AH991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2921,9 +2921,7 @@
       <c r="D23" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -3096,7 +3094,7 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>128</v>
@@ -3146,7 +3144,7 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>134</v>
@@ -16623,7 +16621,7 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">NOW()</f>
-        <v>44942.978850925923</v>
+        <v>44942.98222395833</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>39</v>
